--- a/bots/crawl_ch/output/toilet_coop_2022-08-29.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-08-29.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-29 07:09:36</t>
+          <t>2022-08-29 20:59:05</t>
         </is>
       </c>
     </row>
